--- a/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/IDEPTH_NO_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED NO ORACLE/COLLECTED NO ORACLE RESULTS/COLLECTED RESULTS MAIN/IDEPTH_NO_ORACLE_COLLECTED_RESULTS.xlsx
@@ -246,6 +246,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IDEPTH RANDOM ORACLE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -604,7 +629,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -791,11 +818,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-158032800"/>
-        <c:axId val="-158031440"/>
+        <c:axId val="1406213920"/>
+        <c:axId val="1406215968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-158032800"/>
+        <c:axId val="1406213920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +864,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158031440"/>
+        <c:crossAx val="1406215968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -845,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-158031440"/>
+        <c:axId val="1406215968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,7 +923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-158032800"/>
+        <c:crossAx val="1406213920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10281,7 +10308,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="M11" sqref="M10:M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
